--- a/RúbricaDeEvaluación.xlsx
+++ b/RúbricaDeEvaluación.xlsx
@@ -40,13 +40,13 @@
     <t xml:space="preserve">Dirección del repositorio en Github</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/germanAOQ/FirstProjectAREP2020-1</t>
+    <t xml:space="preserve">https://github.com/germanAOQ/AREP-2-IntroduccionHeroku</t>
   </si>
   <si>
     <t xml:space="preserve">Comentarios adicionales:</t>
   </si>
   <si>
-    <t xml:space="preserve">Debes de agregar mas pruebas de unidad, ya que solo agregas 4 pruebas que son las que aparecen en el taller, pero creo necesario probar casos como que todos los números sean iguales. Pero cumples con todos los requerimientos</t>
+    <t xml:space="preserve">Debes de agregar mas pruebas de unidad, ya que solo agregas 4 pruebas que son las que aparecen en el taller, pero creo necesario probar casos como que todos los números sean iguales. Pero cumples con todos los requerimientos, también creo que deberías de mejorar la interfaz grafica del proyecto, añadir un css que nos deje mas amigable la interfaz.</t>
   </si>
   <si>
     <t xml:space="preserve">Calificación de referencia</t>
@@ -340,7 +340,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="8" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -427,10 +427,10 @@
   <dimension ref="A3:D55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="84.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.3"/>
@@ -475,7 +475,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -980,7 +980,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://github.com/germanAOQ/FirstProjectAREP2020-1"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://github.com/germanAOQ/AREP-2-IntroduccionHeroku"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
